--- a/project/support/Inquerito Respostas/Paulo Campos/Paulo Campos.xlsx
+++ b/project/support/Inquerito Respostas/Paulo Campos/Paulo Campos.xlsx
@@ -368,14 +368,15 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -453,7 +454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I8" s="7" t="s">
         <v>10</v>
       </c>
@@ -730,11 +731,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="18">

--- a/project/support/Inquerito Respostas/Paulo Campos/Paulo Campos.xlsx
+++ b/project/support/Inquerito Respostas/Paulo Campos/Paulo Campos.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve">Paulo Campos</t>
+    <t xml:space="preserve">Paulo Campos                  Project Engineer</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -368,7 +368,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
